--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_32.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1387844.427773732</v>
+        <v>1412446.298294256</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484443</v>
+        <v>278692.0725916854</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6679241.246476776</v>
+        <v>6783505.44149438</v>
       </c>
     </row>
     <row r="11">
@@ -662,13 +662,13 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>231.7740186481119</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>298.6680693675555</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
         <v>128.8768572327044</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -823,16 +823,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>147.5266267319824</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>160.8473933001117</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>24.14105685542928</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>109.4214227270914</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1060,19 +1060,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>100.176219543324</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>37.55695245442657</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1117,7 +1117,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>310.6883293919657</v>
+        <v>343.619527833533</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1300,16 +1300,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>216.2017488798277</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>18.22772027659391</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1528,7 +1528,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735226156</v>
       </c>
       <c r="T13" t="n">
-        <v>27.18442331492795</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>33.08339867820243</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1765,13 +1765,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>39.5975448024402</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1901,7 +1901,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>180.5956509507321</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>5.990622819018409</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>103.3456594571966</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2144,7 +2144,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864833</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2245,7 +2245,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2257,7 +2257,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>5.990622819018409</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>47.61404849749857</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2296,7 +2296,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2330,7 +2330,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H23" t="n">
         <v>286.2388530112159</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>240.9739924675009</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2713,7 +2713,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2731,7 +2731,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>50.38971918733593</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,13 +2770,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>161.1551102058687</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
-        <v>103.8284742946036</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3317,7 +3317,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556796</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>46.24876144511845</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3521,7 +3521,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225706</v>
+        <v>18.05677735226156</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3740,7 +3740,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>211.478528292984</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3904,7 +3904,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>86.27769679771714</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3916,7 +3916,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,16 +3946,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>122.9742767430577</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>154.0254420454375</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -4028,7 +4028,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4147,10 +4147,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>60.94899222869685</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>73.0151467619377</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4183,7 +4183,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4192,7 +4192,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>949.0361114536327</v>
+        <v>763.0287521501522</v>
       </c>
       <c r="C2" t="n">
-        <v>914.93404267746</v>
+        <v>728.9266833739796</v>
       </c>
       <c r="D2" t="n">
-        <v>486.3523684147282</v>
+        <v>697.0573025888282</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>268.4756283260965</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4331,19 +4331,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1395.498511527331</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W2" t="n">
-        <v>990.6430569383642</v>
+        <v>1612.716505715692</v>
       </c>
       <c r="X2" t="n">
-        <v>975.540997558079</v>
+        <v>1193.574042295003</v>
       </c>
       <c r="Y2" t="n">
-        <v>971.2952778981364</v>
+        <v>785.2879185946559</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4413,16 +4413,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.3833729168607</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C4" t="n">
-        <v>199.8216614000857</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4486,22 +4486,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>1233.544589050298</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O4" t="n">
-        <v>1653.213838276079</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V4" t="n">
-        <v>726.6741060804052</v>
+        <v>1269.733634654753</v>
       </c>
       <c r="W4" t="n">
-        <v>726.6741060804052</v>
+        <v>1269.733634654753</v>
       </c>
       <c r="X4" t="n">
-        <v>564.2019916358479</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="Y4" t="n">
-        <v>564.2019916358479</v>
+        <v>1024.341879988165</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1030.653802879758</v>
+        <v>1264.950381849274</v>
       </c>
       <c r="C5" t="n">
-        <v>602.072128617026</v>
+        <v>1230.848313073101</v>
       </c>
       <c r="D5" t="n">
-        <v>491.5454389937014</v>
+        <v>1198.97893228795</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>765.2041874462451</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>741.3771618958569</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="O5" t="n">
-        <v>1294.102365436318</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>1805.9664787622</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="U5" t="n">
-        <v>1477.116202953456</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="V5" t="n">
-        <v>1477.116202953456</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="W5" t="n">
-        <v>1476.301152404893</v>
+        <v>2116.763874884885</v>
       </c>
       <c r="X5" t="n">
-        <v>1461.199093024608</v>
+        <v>1697.621411464196</v>
       </c>
       <c r="Y5" t="n">
-        <v>1456.953373364666</v>
+        <v>1289.335287763849</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326457</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.5714734656729</v>
+        <v>959.7325434520957</v>
       </c>
       <c r="C7" t="n">
-        <v>301.0097619488978</v>
+        <v>787.1708319353206</v>
       </c>
       <c r="D7" t="n">
-        <v>135.1317691504205</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>1233.544589050298</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1233.544589050298</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1233.544589050298</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2462.265192568692</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2216.385746147147</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1937.952745400253</v>
       </c>
       <c r="V7" t="n">
-        <v>1410.227921950848</v>
+        <v>1650.997237270683</v>
       </c>
       <c r="W7" t="n">
-        <v>1138.201517537139</v>
+        <v>1378.970832856975</v>
       </c>
       <c r="X7" t="n">
-        <v>892.8097628705518</v>
+        <v>1378.970832856975</v>
       </c>
       <c r="Y7" t="n">
-        <v>665.39009218466</v>
+        <v>1151.551162171083</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>547.9560900011804</v>
+        <v>2075.583230496374</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>1637.440757679797</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>2449.178548755904</v>
       </c>
       <c r="X8" t="n">
-        <v>1382.541784186435</v>
+        <v>2102.08811660082</v>
       </c>
       <c r="Y8" t="n">
-        <v>974.2556604860882</v>
+        <v>2097.842396940877</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>542.1413766661235</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>369.5796651493484</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>203.7016723508711</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1478.797825151298</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1206.77142073759</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>961.3796660710025</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>733.9599953851107</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168567</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.51439535199</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.604610526434</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>944.8298656847296</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>516.9624360939374</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>115.5646047172013</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
-        <v>2481.810506693462</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3461.990173263768</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4290.300048097164</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.798834055759</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429651</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363477</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774511</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353822</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653475</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1003.232425776221</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>1003.232425776221</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>837.3544329777442</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>667.5964292284815</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>490.8893751902377</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2981002160654</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064399</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289286</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S13" t="n">
-        <v>2532.736396587283</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2505.277383137861</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2226.844382390966</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1939.888874261396</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1667.862469847688</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1422.470715181101</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1195.051044495209</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.263962614635</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111518</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2312.656441940405</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2312.656441940405</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940405</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510712</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344108</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302702</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055759</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4803.381259633332</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.158956950349</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.542006884175</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.686552295208</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.544088874519</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.257965174173</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580462</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412714</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="D16" t="n">
-        <v>608.792309442794</v>
+        <v>624.4588635952861</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935313</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111518</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458048</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169404</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849015</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.15641754123</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.276971119685</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.843970372791</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243221</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162925</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477033</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2525.222555802381</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.080082985804</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.170298160249</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318544</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.5281237277518</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510157</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423166</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137167</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742895</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.204695523536</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356932</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315527</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068583</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.51554725242</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125459</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442475</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4183.806167997292</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3778.950713408325</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3359.808249987635</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2951.522126287289</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126645</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493068</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.20834339586</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228137</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389753</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051592</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137167</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818293</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480416</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.650331805841</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741133</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474327</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132068</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.0589944924276</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>949.0793854983028</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C19" t="n">
-        <v>776.5176739815279</v>
+        <v>926.148474301186</v>
       </c>
       <c r="D19" t="n">
-        <v>610.6396811830506</v>
+        <v>760.2704815027087</v>
       </c>
       <c r="E19" t="n">
-        <v>440.8816774337878</v>
+        <v>590.5124777534459</v>
       </c>
       <c r="F19" t="n">
-        <v>264.174623395544</v>
+        <v>413.8054237152021</v>
       </c>
       <c r="G19" t="n">
-        <v>98.58334842137167</v>
+        <v>248.2141487410298</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137167</v>
+        <v>108.3119744314043</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137167</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860615</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571973</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251584</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.615237106071</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263716</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489498</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324172</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324172</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.001589622168</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2310.122143200624</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2031.689142453729</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1744.73363432416</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W19" t="n">
-        <v>1472.707229910451</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X19" t="n">
-        <v>1368.317674903182</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y19" t="n">
-        <v>1140.89800421729</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5738,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5762,31 +5762,31 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>922.9010479080735</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C22" t="n">
-        <v>750.3393363912985</v>
+        <v>926.148474301186</v>
       </c>
       <c r="D22" t="n">
-        <v>584.4613435928212</v>
+        <v>760.2704815027087</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>590.5124777534459</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>413.8054237152021</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>248.2141487410298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>108.3119744314043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5911,10 +5911,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
         <v>1341.292728955479</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2670.825451691258</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2424.946005269713</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2146.513004522818</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1859.557496393248</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.53109197954</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X22" t="n">
-        <v>1342.139337312952</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y22" t="n">
-        <v>1114.71966662706</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C23" t="n">
         <v>2090.757574835213</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
         <v>102.6776296436396</v>
@@ -6069,19 +6069,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2559.679081471576</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>920.0973401405612</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
         <v>1341.292728955479</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2668.021743923744</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2422.1422975022</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2143.709296755305</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1856.753788625736</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W28" t="n">
-        <v>1584.727384212028</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X28" t="n">
-        <v>1339.33562954544</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.915958859548</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>475.2748675296854</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>475.2748675296854</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>475.2748675296854</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>1632.322702740236</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6543,22 +6543,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
         <v>1648.327823655249</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6780,22 +6780,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6883,7 +6883,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
         <v>2454.80183470935</v>
@@ -6917,70 +6917,70 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436394</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707794</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707794</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289573</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>3137.402081918263</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4117.58174848857</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4943.887948785911</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785911</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538968</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722805</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,52 +6990,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620722</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987144</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.8858352452677</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722214</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>229.381582188383</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545669</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707794</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312369</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974493</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>452.8828383974493</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>452.8828383974493</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>452.8828383974493</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>452.8828383974493</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>452.8828383974493</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655248</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7056,10 +7056,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626146</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418353</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.31900088266</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
         <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674083</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181457</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799018</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057295</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>190.920789496104</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707794</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>188.8405254354692</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.5989800066048</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745659</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
         <v>2203.220781338905</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2491.545339525313</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U37" t="n">
-        <v>2213.112338778418</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V37" t="n">
-        <v>1926.156830648848</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1654.13042623514</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1408.738671568552</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1181.31900088266</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7181,43 +7181,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257731</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136695</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7254,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7309,13 +7309,13 @@
         <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
         <v>267.852115244952</v>
@@ -7330,31 +7330,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354733</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066049</v>
+        <v>463.5989800066089</v>
       </c>
       <c r="L40" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745699</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S40" t="n">
         <v>2700.681281130895</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2526.635886538672</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.493413722095</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.58362889654</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.808884054835</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>790.9414544640426</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>389.5436230873069</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305231</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305231</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.668155983441</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.018447941619</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194478</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2665.68509916386</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>2665.68509916386</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3645.864765734167</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4474.174640567563</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5020.673426526158</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526158</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5020.673426526158</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4807.058751482739</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4547.836448799756</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.219498733582</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.364044144615</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.221580723926</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2952.93545702358</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218159</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584582</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050115</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319652</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481268</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143107</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305231</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909807</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1131.76898672757</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>1131.76898672757</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>1131.76898672757</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>1131.76898672757</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>1131.76898672757</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
-        <v>1131.76898672757</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914992</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009332</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457715</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788285</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850284</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583478</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223583</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015791</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1090.81167991708</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C43" t="n">
-        <v>918.2499684003047</v>
+        <v>926.148474301186</v>
       </c>
       <c r="D43" t="n">
-        <v>752.3719756018274</v>
+        <v>760.2704815027087</v>
       </c>
       <c r="E43" t="n">
-        <v>582.6139718525648</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>405.906917814321</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>240.3156428401486</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>100.4134685305231</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305231</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.993153695213</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663486</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343097</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372867</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433323</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433323</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2592.856637278719</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2592.856637278719</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2314.423636531824</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>2027.468128402255</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W43" t="n">
-        <v>1755.441723988546</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X43" t="n">
-        <v>1510.049969321959</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y43" t="n">
-        <v>1282.630298636067</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2523.375184062125</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.680751987495</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>97.15276605397518</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M44" t="n">
-        <v>2481.810506693463</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N44" t="n">
-        <v>2481.810506693463</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3461.990173263769</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4290.300048097165</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4836.798834055759</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112635</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4273.857430429652</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.240480363478</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3506.385025774512</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3087.242562353822</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2678.956438653476</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1128.091494878162</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>1128.091494878162</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>1128.091494878162</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.091494878162</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>1128.091494878162</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
-        <v>1128.091494878162</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1071.767500933669</v>
+        <v>949.57822509577</v>
       </c>
       <c r="C46" t="n">
-        <v>899.2057894168944</v>
+        <v>777.0165135789949</v>
       </c>
       <c r="D46" t="n">
-        <v>733.3277966184171</v>
+        <v>611.1385207805176</v>
       </c>
       <c r="E46" t="n">
-        <v>563.5697928691544</v>
+        <v>441.3805170312549</v>
       </c>
       <c r="F46" t="n">
-        <v>386.8627388309106</v>
+        <v>264.6734629930111</v>
       </c>
       <c r="G46" t="n">
-        <v>325.2981002160653</v>
+        <v>264.6734629930111</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064399</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006608</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849017</v>
+        <v>881.808861774569</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955482</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289287</v>
+        <v>2697.502628878954</v>
       </c>
       <c r="S46" t="n">
-        <v>2532.736396587284</v>
+        <v>2697.502628878954</v>
       </c>
       <c r="T46" t="n">
-        <v>2286.856950165739</v>
+        <v>2451.623182457409</v>
       </c>
       <c r="U46" t="n">
-        <v>2008.423949418844</v>
+        <v>2173.190181710514</v>
       </c>
       <c r="V46" t="n">
-        <v>2008.423949418844</v>
+        <v>1886.234673580945</v>
       </c>
       <c r="W46" t="n">
-        <v>1736.397545005136</v>
+        <v>1614.208269167236</v>
       </c>
       <c r="X46" t="n">
-        <v>1491.005790338548</v>
+        <v>1368.816514500649</v>
       </c>
       <c r="Y46" t="n">
-        <v>1263.586119652657</v>
+        <v>1141.396843814757</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8061,19 +8061,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>44.41372909529082</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>298.4303698644312</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>22.94960388475511</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>469.682203560008</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8535,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8696,10 +8696,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>955.8742281294894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,13 +9170,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>951.4711125638482</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>866.2895820207509</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9419,10 +9419,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -10109,19 +10109,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>376.7818457160665</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10133,7 +10133,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10428,7 +10428,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10592,19 +10592,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>834.6527275730723</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10829,7 +10829,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11066,7 +11066,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>222.8350353226083</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,10 +11154,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11300,13 +11300,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>40.81776196807323</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>268.011132734622</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627218</v>
       </c>
       <c r="T13" t="n">
-        <v>216.2362286424013</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>184.7831561774893</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>128.4628789093299</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>178.3951296147797</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>81.782726914053</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>81.782726914053</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>110.0349065174847</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,13 +24412,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>34.67467827192479</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>107.2592358276474</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>81.78272691405292</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>197.1718905122108</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627262</v>
+        <v>139.5921776627218</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>6.388026562707764</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>81.78272691405297</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,16 +25834,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>34.67467827192561</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>268.0111327346212</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>102.9863699957338</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>65.48800580459152</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>552264.9800633462</v>
+        <v>567061.0228905007</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>552264.9800633462</v>
+        <v>569725.0829440806</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>570510.6172094494</v>
+        <v>594586.817188455</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>570510.6172094494</v>
+        <v>594586.817188455</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>578561.0768691567</v>
+        <v>594586.817188455</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>594586.8171884549</v>
+        <v>594586.817188455</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>586536.3575287478</v>
+        <v>594586.817188455</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>570510.6172094495</v>
+        <v>594586.817188455</v>
       </c>
     </row>
   </sheetData>
@@ -26320,19 +26320,19 @@
         <v>428917.8559123268</v>
       </c>
       <c r="E2" t="n">
-        <v>404419.1183773411</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="F2" t="n">
-        <v>404419.1183773411</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="G2" t="n">
-        <v>410125.8654560127</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="H2" t="n">
-        <v>421486.067309882</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="I2" t="n">
-        <v>421486.067309882</v>
+        <v>421486.0673098818</v>
       </c>
       <c r="J2" t="n">
         <v>421486.0673098819</v>
@@ -26341,19 +26341,19 @@
         <v>421486.0673098819</v>
       </c>
       <c r="L2" t="n">
-        <v>421486.0673098818</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="M2" t="n">
         <v>421486.0673098819</v>
       </c>
       <c r="N2" t="n">
+        <v>421486.067309882</v>
+      </c>
+      <c r="O2" t="n">
         <v>421486.0673098819</v>
       </c>
-      <c r="O2" t="n">
-        <v>415779.3202312106</v>
-      </c>
       <c r="P2" t="n">
-        <v>404419.1183773412</v>
+        <v>421486.0673098818</v>
       </c>
     </row>
     <row r="3">
@@ -26366,22 +26366,22 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501596</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998296</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042852379</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996143</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877235</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622472</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830669</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212093.119437218</v>
+        <v>212093.1194372179</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>179718.6327917067</v>
       </c>
       <c r="D4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>91036.59625752567</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="F4" t="n">
-        <v>91036.59625752569</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="G4" t="n">
-        <v>92321.21116848571</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="H4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="I4" t="n">
-        <v>94878.44464875292</v>
+        <v>94878.44464875285</v>
       </c>
       <c r="J4" t="n">
         <v>94878.44464875289</v>
@@ -26448,16 +26448,16 @@
         <v>94878.44464875289</v>
       </c>
       <c r="M4" t="n">
-        <v>94878.44464875326</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="N4" t="n">
+        <v>94878.44464875291</v>
+      </c>
+      <c r="O4" t="n">
+        <v>94878.44464875285</v>
+      </c>
+      <c r="P4" t="n">
         <v>94878.44464875289</v>
-      </c>
-      <c r="O4" t="n">
-        <v>93593.82973779288</v>
-      </c>
-      <c r="P4" t="n">
-        <v>91036.59625752569</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800255</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024246</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057923</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.2360831976</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764753</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15208.64767817664</v>
+        <v>15208.64767817659</v>
       </c>
       <c r="C6" t="n">
-        <v>157399.9483378865</v>
+        <v>110655.2414176016</v>
       </c>
       <c r="D6" t="n">
-        <v>157399.9483378865</v>
+        <v>169288.200534143</v>
       </c>
       <c r="E6" t="n">
-        <v>5508.157820130582</v>
+        <v>66511.05049490408</v>
       </c>
       <c r="F6" t="n">
-        <v>239863.1798421679</v>
+        <v>248866.1597159538</v>
       </c>
       <c r="G6" t="n">
-        <v>236552.0984444322</v>
+        <v>248866.1597159538</v>
       </c>
       <c r="H6" t="n">
-        <v>236486.6290753752</v>
+        <v>248866.1597159538</v>
       </c>
       <c r="I6" t="n">
-        <v>248889.3840553366</v>
+        <v>248866.1597159538</v>
       </c>
       <c r="J6" t="n">
-        <v>137874.9187103463</v>
+        <v>137851.6943709637</v>
       </c>
       <c r="K6" t="n">
-        <v>248889.3840553365</v>
+        <v>195820.3050771815</v>
       </c>
       <c r="L6" t="n">
-        <v>248889.3840553364</v>
+        <v>239473.8579893314</v>
       </c>
       <c r="M6" t="n">
-        <v>53288.20477226941</v>
+        <v>96665.98877796618</v>
       </c>
       <c r="N6" t="n">
-        <v>248889.3840553365</v>
+        <v>248866.1597159539</v>
       </c>
       <c r="O6" t="n">
-        <v>245871.2544102201</v>
+        <v>248866.1597159539</v>
       </c>
       <c r="P6" t="n">
-        <v>239863.179842168</v>
+        <v>248866.1597159537</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368463</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267146</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384742</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631539</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675320568</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811759958</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938318</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675320568</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811759958</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27382,13 +27382,13 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>191.8147366467724</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27436,16 +27436,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>60.32271119795621</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,16 +27543,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27585,22 +27585,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>136.5593263162914</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>82.09044381980993</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>397.8955179246294</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>322.1292642502085</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27676,13 +27676,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>67.88420416844608</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>120.0920025605567</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27904,7 +27904,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27916,10 +27916,10 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>104.2627093945167</v>
+        <v>71.33151095294943</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,13 +28062,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>67.8842041684461</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-1.151023720780131e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>3.817562007254101e-12</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30748,7 +30748,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -30879,7 +30879,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>2.922225424602705e-12</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -34699,7 +34699,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34714,7 +34714,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34781,19 +34781,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>44.41372909529082</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>298.4303698644312</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>22.94960388475511</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>469.682203560008</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35255,7 +35255,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,16 +35410,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35583,7 +35583,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165111</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821539</v>
@@ -35647,16 +35647,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>955.8742281294894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908047</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,19 +35884,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>951.4711125638482</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36042,19 +36042,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960968</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>866.2895820207509</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36139,10 +36139,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36279,19 +36279,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36437,7 +36437,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908053</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36759,7 +36759,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>376.7818457160665</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36853,7 +36853,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,10 +36926,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37148,7 +37148,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>834.6527275730723</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37549,7 +37549,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908054</v>
+        <v>87.45422743908451</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37707,13 +37707,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37786,7 +37786,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>222.8350353226083</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,10 +37874,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37944,13 +37944,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,16 +38017,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>40.81776196807323</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,10 +38111,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960995</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
